--- a/StructureDefinition-BeModelMedicationRecordPrescription.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordPrescription.xlsx
@@ -173,7 +173,7 @@
 </t>
   </si>
   <si>
-    <t>active  | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown medicationrequest Status (Required)</t>
+    <t>active  | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown medicationrequest Status (Required)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordPrescription.statusReason</t>
@@ -183,23 +183,23 @@
 </t>
   </si>
   <si>
-    <t>Reason for current status medicationRequest Status Reason Codes (Example)</t>
+    <t>Reason for current status medicationRequest Status Reason Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordPrescription.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option  medicationRequest Intent (Required)</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordPrescription.product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Medication)
-</t>
-  </si>
-  <si>
-    <t>Medication to be taken SNOMED CT Medication Codes (Example)</t>
+    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option  medicationRequest Intent (Required)</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordPrescription.product[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Medication)</t>
+  </si>
+  <si>
+    <t>Medication to be taken SNOMED CT Medication Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordPrescription.encounter</t>
@@ -229,7 +229,7 @@
 </t>
   </si>
   <si>
-    <t>Reason or indication for ordering or not ordering the medication Condition/Problem/Diagnosis Codes (Example)</t>
+    <t>Reason or indication for ordering or not ordering the medication Condition/Problem/Diagnosis Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordPrescription.groupIdentifier</t>

--- a/StructureDefinition-BeModelMedicationRecordPrescription.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordPrescription.xlsx
@@ -153,7 +153,7 @@
 </t>
   </si>
   <si>
-    <t>The business identifier(s) for the medication dispense session</t>
+    <t>The business identifier(s) for the medication prescription</t>
   </si>
   <si>
     <t>BeModelMedicationRecordPrescription.patient</t>
@@ -163,7 +163,7 @@
 </t>
   </si>
   <si>
-    <t>The person for which the medication is dispensed.</t>
+    <t>The person for which the medication is prescribed.</t>
   </si>
   <si>
     <t>BeModelMedicationRecordPrescription.status</t>
